--- a/api-reactjs-project/uploads/template/0028.xlsx
+++ b/api-reactjs-project/uploads/template/0028.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ggj/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DED9A71-A745-2C4B-A46A-955C3B85898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAF785B-C476-FF49-AA5B-43524A895D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Student ID</t>
   </si>
@@ -28,10 +28,10 @@
     <t>Full name</t>
   </si>
   <si>
-    <t>Nguyễn Thái Hiệp</t>
+    <t>Hiệp</t>
   </si>
   <si>
-    <t>hiệp</t>
+    <t>khoa</t>
   </si>
 </sst>
 </file>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>20127496</v>
+        <v>20127999</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -437,17 +437,9 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>20117444</v>
+        <v>361277312</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>20127499</v>
-      </c>
-      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
